--- a/benchmarking/results/mt5_tuned_base_minimized_v1_db-v13_output_yaml_out_gold_annotations_05082024_eval.xlsx
+++ b/benchmarking/results/mt5_tuned_base_minimized_v1_db-v13_output_yaml_out_gold_annotations_05082024_eval.xlsx
@@ -703,12 +703,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -909,12 +909,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -2319,12 +2319,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -2827,12 +2827,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -3280,12 +3280,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -4573,12 +4573,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -5752,12 +5752,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -6241,12 +6241,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -6364,12 +6364,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>ResultDataType.FALSE</t>
+          <t>ResultDataType.TRUE</t>
         </is>
       </c>
       <c r="M58" t="n">
